--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>BHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,153 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>16200</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,13 +823,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -825,22 +839,25 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +962,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,19 +1040,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1030,14 +1064,17 @@
       <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,40 +1084,43 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1088,72 +1128,81 @@
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>10100</v>
       </c>
       <c r="E23" s="3">
         <v>800</v>
       </c>
       <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3300</v>
       </c>
       <c r="H26" s="3">
         <v>3300</v>
       </c>
       <c r="I26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3300</v>
       </c>
       <c r="H27" s="3">
         <v>3300</v>
       </c>
       <c r="I27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,19 +1422,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1378,43 +1448,49 @@
       <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3300</v>
       </c>
       <c r="H33" s="3">
         <v>3300</v>
       </c>
       <c r="I33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3300</v>
       </c>
       <c r="H35" s="3">
         <v>3300</v>
       </c>
       <c r="I35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1617,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,23 +1679,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E43" s="3">
         <v>27400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>12100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,23 +1711,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,23 +1743,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1775,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E46" s="3">
         <v>39300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3">
         <v>25700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,23 +1807,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,23 +1839,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,23 +1871,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>4300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,23 +1967,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2031,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E54" s="3">
         <v>57200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3">
         <v>35500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2093,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,23 +2123,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,23 +2155,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2187,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,11 +2234,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2108,17 +2251,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2379,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2553,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E72" s="3">
         <v>26700</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>16300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +2681,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E76" s="3">
         <v>45400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3">
         <v>28300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3300</v>
       </c>
       <c r="H81" s="3">
         <v>3300</v>
       </c>
       <c r="I81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +2830,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3020,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,16 +3068,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2865,20 +3086,23 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3162,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,91 +3336,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>30200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
         <v>16200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,16 +837,17 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -842,22 +856,25 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +989,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
         <v>20600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,22 +1074,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1067,14 +1101,17 @@
       <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>200</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1091,39 +1128,42 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1131,78 +1171,87 @@
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>100</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>10100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>800</v>
       </c>
       <c r="F23" s="3">
         <v>800</v>
       </c>
       <c r="G23" s="3">
+        <v>800</v>
+      </c>
+      <c r="H23" s="3">
         <v>4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1282,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3300</v>
       </c>
       <c r="I26" s="3">
         <v>3300</v>
       </c>
       <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3300</v>
       </c>
       <c r="I27" s="3">
         <v>3300</v>
       </c>
       <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,22 +1492,25 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1451,46 +1521,52 @@
       <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>-200</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3300</v>
       </c>
       <c r="I33" s="3">
         <v>3300</v>
       </c>
       <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1597,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3300</v>
       </c>
       <c r="I35" s="3">
         <v>3300</v>
       </c>
       <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,26 +1704,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E41" s="3">
         <v>15800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3">
         <v>11800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,26 +1772,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E43" s="3">
         <v>32900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>12100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,26 +1807,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,26 +1842,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,26 +1877,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E46" s="3">
         <v>50700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3">
         <v>25700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,26 +1912,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,26 +1947,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,26 +1982,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,26 +2087,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,26 +2157,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E54" s="3">
         <v>75700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3">
         <v>35500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,26 +2224,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,26 +2257,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,26 +2292,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
         <v>8100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,26 +2327,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E60" s="3">
         <v>16700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2237,11 +2380,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2254,20 +2397,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,26 +2537,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,26 +2727,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E72" s="3">
         <v>33600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>16300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,26 +2867,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E76" s="3">
         <v>58800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
         <v>28300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +2937,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3300</v>
       </c>
       <c r="I81" s="3">
         <v>3300</v>
       </c>
       <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2857,14 +3056,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,8 +3237,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3049,14 +3266,17 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3095,14 +3316,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3191,14 +3421,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3365,14 +3611,17 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3397,14 +3646,17 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3429,10 +3681,13 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>BHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,19 +851,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -859,22 +873,25 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,25 +1108,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1104,14 +1138,17 @@
       <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>200</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1127,26 +1164,29 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1154,19 +1194,19 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1174,84 +1214,93 @@
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>100</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>800</v>
       </c>
       <c r="G23" s="3">
         <v>800</v>
       </c>
       <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
         <v>4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3300</v>
       </c>
       <c r="J26" s="3">
         <v>3300</v>
       </c>
       <c r="K26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3300</v>
       </c>
       <c r="J27" s="3">
         <v>3300</v>
       </c>
       <c r="K27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,25 +1562,28 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1524,49 +1594,55 @@
       <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>-200</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3300</v>
       </c>
       <c r="J33" s="3">
         <v>3300</v>
       </c>
       <c r="K33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3300</v>
       </c>
       <c r="J35" s="3">
         <v>3300</v>
       </c>
       <c r="K35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,29 +1791,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
         <v>11800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,29 +1865,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E43" s="3">
         <v>49700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>12100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1819,20 +1915,20 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,29 +1941,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,29 +1979,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E46" s="3">
         <v>69800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3">
         <v>25700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,29 +2017,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,29 +2055,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,29 +2093,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E49" s="3">
         <v>27000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>4300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,29 +2207,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,29 +2283,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E54" s="3">
         <v>110800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>75700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3">
         <v>35500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,29 +2355,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E57" s="3">
         <v>19600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,29 +2391,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,29 +2429,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,29 +2467,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E60" s="3">
         <v>35200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2383,11 +2526,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2409,14 +2555,14 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,29 +2695,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E66" s="3">
         <v>43600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,29 +2901,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E72" s="3">
         <v>34300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>16300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,29 +3053,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E76" s="3">
         <v>67200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3">
         <v>28300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3300</v>
       </c>
       <c r="J81" s="3">
         <v>3300</v>
       </c>
       <c r="K81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3059,14 +3258,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,8 +3454,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3269,14 +3486,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3319,14 +3540,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3622,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3424,14 +3654,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3828,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3614,14 +3860,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3649,14 +3898,17 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3684,10 +3936,13 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>BHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
-        <v>43465</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
-        <v>30200</v>
-      </c>
       <c r="G8" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
-        <v>16200</v>
-      </c>
       <c r="G9" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E10" s="3">
         <v>4700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4000</v>
       </c>
-      <c r="F10" s="3">
-        <v>14000</v>
-      </c>
       <c r="G10" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,19 +865,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -876,22 +890,25 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E17" s="3">
         <v>6100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8200</v>
       </c>
-      <c r="F17" s="3">
-        <v>20600</v>
-      </c>
       <c r="G17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
-        <v>9600</v>
-      </c>
       <c r="G18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,22 +1142,23 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1133,7 +1167,7 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1141,14 +1175,17 @@
       <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>200</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1167,46 +1204,49 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1217,90 +1257,99 @@
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
-        <v>10100</v>
-      </c>
       <c r="G23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>1800</v>
-      </c>
       <c r="G24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>8300</v>
-      </c>
       <c r="G26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3300</v>
       </c>
       <c r="K26" s="3">
         <v>3300</v>
       </c>
       <c r="L26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
-        <v>8300</v>
-      </c>
       <c r="G27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3300</v>
       </c>
       <c r="K27" s="3">
         <v>3300</v>
       </c>
       <c r="L27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,22 +1632,25 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1589,7 +1659,7 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -1597,52 +1667,58 @@
       <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>-200</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
-        <v>8300</v>
-      </c>
       <c r="G33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3300</v>
       </c>
       <c r="K33" s="3">
         <v>3300</v>
       </c>
       <c r="L33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
-        <v>8300</v>
-      </c>
       <c r="G35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>3300</v>
       </c>
       <c r="K35" s="3">
         <v>3300</v>
       </c>
       <c r="L35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
-        <v>43465</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,28 +1878,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3">
-        <v>11800</v>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,28 +1958,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E43" s="3">
         <v>45900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
-        <v>12100</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1918,16 +2014,16 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1944,28 +2040,31 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1400</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1982,28 +2081,31 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E46" s="3">
         <v>60000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>69800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3">
-        <v>25700</v>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2029,19 +2134,19 @@
         <v>1900</v>
       </c>
       <c r="E47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1800</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2058,28 +2163,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2096,28 +2204,31 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E49" s="3">
         <v>26600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4300</v>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,28 +2327,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="3">
         <v>12800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3600</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,28 +2409,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E54" s="3">
         <v>105900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3">
-        <v>35500</v>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,28 +2486,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2403,19 +2537,19 @@
         <v>1400</v>
       </c>
       <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3200</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2432,28 +2566,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>8000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2100</v>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2470,28 +2607,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E60" s="3">
         <v>24200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3">
-        <v>7100</v>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2529,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2546,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2558,14 +2704,14 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,28 +2853,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E66" s="3">
         <v>32900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3">
-        <v>7200</v>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,28 +3075,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E72" s="3">
         <v>34200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>26700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
-        <v>16300</v>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,28 +3239,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E76" s="3">
         <v>73000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3">
-        <v>28300</v>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
-        <v>43465</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
-        <v>8300</v>
-      </c>
       <c r="G81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>3300</v>
       </c>
       <c r="K81" s="3">
         <v>3300</v>
       </c>
       <c r="L81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3261,14 +3460,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,8 +3671,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3489,14 +3706,17 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3543,14 +3764,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3657,14 +3887,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,8 +4074,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3863,14 +4109,17 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3901,14 +4150,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3939,10 +4191,13 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>BHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,204 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
-        <v>21400</v>
-      </c>
       <c r="H8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
-        <v>13800</v>
-      </c>
       <c r="H9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>600</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
       </c>
       <c r="K9" s="3">
+        <v>600</v>
+      </c>
+      <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
         <v>5400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4000</v>
       </c>
-      <c r="G10" s="3">
-        <v>7600</v>
-      </c>
       <c r="H10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,25 +878,26 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -893,22 +906,25 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,31 +964,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>18400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1069,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E17" s="3">
         <v>11300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
-        <v>15400</v>
-      </c>
       <c r="H17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
-        <v>6000</v>
-      </c>
       <c r="H18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,34 +1175,35 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1178,14 +1211,17 @@
       <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>200</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1210,43 +1246,46 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1260,96 +1299,105 @@
       <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>100</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
-        <v>6500</v>
-      </c>
       <c r="H23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I23" s="3">
         <v>2000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>800</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
+        <v>800</v>
+      </c>
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>1100</v>
-      </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>5400</v>
-      </c>
       <c r="H26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3300</v>
       </c>
       <c r="L26" s="3">
         <v>3300</v>
       </c>
       <c r="M26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>5400</v>
-      </c>
       <c r="H27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3300</v>
       </c>
       <c r="L27" s="3">
         <v>3300</v>
       </c>
       <c r="M27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,31 +1569,34 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,34 +1701,37 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -1670,55 +1739,61 @@
       <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>-200</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
-        <v>5400</v>
-      </c>
       <c r="H33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3300</v>
       </c>
       <c r="L33" s="3">
         <v>3300</v>
       </c>
       <c r="M33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
-        <v>5400</v>
-      </c>
       <c r="H35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3300</v>
       </c>
       <c r="L35" s="3">
         <v>3300</v>
       </c>
       <c r="M35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E43" s="3">
         <v>48600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49700</v>
       </c>
-      <c r="G43" s="3">
-        <v>32900</v>
-      </c>
       <c r="H43" s="3">
+        <v>32100</v>
+      </c>
+      <c r="I43" s="3">
         <v>27400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,13 +2094,16 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2017,14 +2112,14 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,29 +2138,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
-        <v>1900</v>
-      </c>
       <c r="H45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E46" s="3">
         <v>63900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>69800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2137,17 +2241,17 @@
         <v>1900</v>
       </c>
       <c r="F47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,29 +2314,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E49" s="3">
         <v>27900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,29 +2446,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>12000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E54" s="3">
         <v>110100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E57" s="3">
         <v>15000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19600</v>
       </c>
-      <c r="G57" s="3">
-        <v>2800</v>
-      </c>
       <c r="H57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,29 +2658,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>1400</v>
       </c>
       <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
-        <v>5900</v>
-      </c>
       <c r="H58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11200</v>
       </c>
-      <c r="G59" s="3">
-        <v>8100</v>
-      </c>
       <c r="H59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
         <v>26500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35200</v>
       </c>
-      <c r="G60" s="3">
-        <v>16700</v>
-      </c>
       <c r="H60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I60" s="3">
         <v>11500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,13 +2790,16 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2669,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2692,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2707,14 +2852,14 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E66" s="3">
         <v>35900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43600</v>
       </c>
-      <c r="G66" s="3">
-        <v>16800</v>
-      </c>
       <c r="H66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E72" s="3">
         <v>35500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E76" s="3">
         <v>74200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
-        <v>5400</v>
-      </c>
       <c r="H81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3300</v>
       </c>
       <c r="L81" s="3">
         <v>3300</v>
       </c>
       <c r="M81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3463,14 +3661,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,8 +3887,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3709,14 +3925,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3767,14 +3987,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4081,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3890,14 +4119,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4319,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4112,14 +4357,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4153,14 +4401,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4194,10 +4445,13 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>BHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,230 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>15200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13300</v>
       </c>
-      <c r="F8" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>15800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="F10" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I10" s="3">
         <v>4000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,37 +905,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>13200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -917,14 +945,20 @@
       <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,37 +1001,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>18400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1011,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>76100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-60900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,31 +1242,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1209,19 +1277,25 @@
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1249,49 +1323,55 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1302,102 +1382,120 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-61400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
-        <v>800</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
-        <v>600</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-61500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>700</v>
+      </c>
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-58600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>700</v>
+      </c>
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,37 +1688,43 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>1500</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1616,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,31 +1838,37 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1737,63 +1877,75 @@
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-57100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-57100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,34 +2137,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>11400</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -2009,8 +2183,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,34 +2233,40 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E43" s="3">
         <v>19700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>27400</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2097,16 +2283,22 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2115,16 +2307,16 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>200</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2141,34 +2333,40 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>300</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2185,34 +2383,40 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E46" s="3">
         <v>21700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>69800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>39300</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2229,13 +2433,19 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E47" s="3">
         <v>1900</v>
@@ -2244,19 +2454,19 @@
         <v>1900</v>
       </c>
       <c r="G47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>1700</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2273,34 +2483,40 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>4900</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2317,34 +2533,40 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E49" s="3">
         <v>6900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>6400</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2361,8 +2583,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2683,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2458,25 +2698,25 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>12000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>4800</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,34 +2783,40 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E54" s="3">
         <v>36500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>57200</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2581,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,34 +2877,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
         <v>12300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>4700</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2661,34 +2923,40 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1400</v>
       </c>
       <c r="F58" s="3">
         <v>1400</v>
       </c>
       <c r="G58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>2000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2705,34 +2973,40 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>4800</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2749,34 +3023,40 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>18300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>11500</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2793,17 +3073,23 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2811,11 +3097,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2837,13 +3123,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2855,16 +3147,16 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2881,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,34 +3323,40 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E66" s="3">
         <v>21300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>11800</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,34 +3593,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>35500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>26700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>26700</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3295,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,34 +3793,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>74200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>45400</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-57100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +4022,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3664,14 +4062,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4318,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3928,14 +4362,20 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4392,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3990,14 +4432,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4538,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4122,14 +4582,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4808,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4360,14 +4852,20 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4404,14 +4902,20 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4448,10 +4952,16 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>BHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>600</v>
       </c>
       <c r="M9" s="3">
         <v>600</v>
       </c>
       <c r="N9" s="3">
+        <v>600</v>
+      </c>
+      <c r="O9" s="3">
         <v>3500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,34 +920,35 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -943,22 +957,25 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,40 +1024,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>18400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-60900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1700</v>
       </c>
       <c r="I18" s="3">
         <v>1700</v>
       </c>
       <c r="J18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,31 +1290,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1288,14 +1322,17 @@
       <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>200</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1329,52 +1366,55 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1388,114 +1428,123 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>100</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>800</v>
       </c>
       <c r="M23" s="3">
         <v>800</v>
       </c>
       <c r="N23" s="3">
+        <v>800</v>
+      </c>
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>3300</v>
       </c>
       <c r="O26" s="3">
         <v>3300</v>
       </c>
       <c r="P26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3300</v>
       </c>
       <c r="O27" s="3">
         <v>3300</v>
       </c>
       <c r="P27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,40 +1752,43 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>1500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1856,31 +1926,31 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -1888,64 +1958,70 @@
       <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-200</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3300</v>
       </c>
       <c r="O33" s="3">
         <v>3300</v>
       </c>
       <c r="P33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>3300</v>
       </c>
       <c r="O35" s="3">
         <v>3300</v>
       </c>
       <c r="P35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,37 +2225,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>11400</v>
       </c>
       <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>11400</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,37 +2329,40 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E43" s="3">
         <v>16700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>27400</v>
       </c>
       <c r="K43" s="3">
         <v>27400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>27400</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2298,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2310,16 +2406,16 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>200</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -2339,37 +2435,40 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>300</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2389,37 +2488,40 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E46" s="3">
         <v>18300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>69800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>39300</v>
       </c>
       <c r="K46" s="3">
         <v>39300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>39300</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2439,16 +2541,19 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1900</v>
       </c>
       <c r="F47" s="3">
         <v>1900</v>
@@ -2457,19 +2562,19 @@
         <v>1900</v>
       </c>
       <c r="H47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1700</v>
       </c>
       <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>1700</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2489,37 +2594,40 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4900</v>
       </c>
       <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>4900</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2539,37 +2647,40 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E49" s="3">
         <v>5700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6400</v>
       </c>
       <c r="K49" s="3">
         <v>6400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>6400</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,37 +2806,40 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
       </c>
       <c r="F52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="3">
         <v>12000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4800</v>
       </c>
       <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>4800</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,37 +2912,40 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E54" s="3">
         <v>31600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>57200</v>
       </c>
       <c r="K54" s="3">
         <v>57200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>57200</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,37 +3009,38 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4700</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>4700</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2938,28 +3072,28 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1400</v>
       </c>
       <c r="G58" s="3">
         <v>1400</v>
       </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>2000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2979,37 +3113,40 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4800</v>
       </c>
       <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>4800</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3029,37 +3166,40 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E60" s="3">
         <v>18900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>11500</v>
       </c>
       <c r="K60" s="3">
         <v>11500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>11500</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -3079,20 +3219,23 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3100,11 +3243,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3138,7 +3284,7 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3150,16 +3296,16 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,37 +3484,40 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E66" s="3">
         <v>21400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>11800</v>
       </c>
       <c r="K66" s="3">
         <v>11800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>11800</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,37 +3770,40 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>35500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>34300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>26700</v>
       </c>
       <c r="K72" s="3">
         <v>26700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>26700</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,37 +3982,40 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>67200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>45400</v>
       </c>
       <c r="K76" s="3">
         <v>45400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>45400</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>3300</v>
       </c>
       <c r="O81" s="3">
         <v>3300</v>
       </c>
       <c r="P81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4068,14 +4267,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,8 +4538,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4368,14 +4585,17 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4438,14 +4659,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4588,14 +4818,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,8 +5057,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4858,14 +5104,17 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4908,14 +5157,17 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4958,10 +5210,13 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
